--- a/tut04/output_by_subject/CS322.xlsx
+++ b/tut04/output_by_subject/CS322.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,8 +461,1701 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve">CORE
-</t>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>1901CS02</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>1901CS04</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>1901CS05</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>1901CS07</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>1901CS09</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1901CS10</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1901CS11</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1901CS12</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1901CS13</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1901CS14</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1901CS15</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1901CS17</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1901CS18</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1901CS19</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1901CS20</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1901CS21</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1901CS23</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1901CS24</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1901CS25</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1901CS26</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1901CS28</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1901CS31</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1901CS33</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1901CS34</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1901CS35</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1901CS41</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1901CS44</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1901CS45</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1901CS50</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1901CS53</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1901CS54</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1901CS55</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1901CS57</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1901CS58</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1901CS59</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1901CS61</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1901CS62</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1901CS65</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1901CS66</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1901CS67</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1901CS68</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1901CS69</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1901CS71</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1901CS72</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1901CS73</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1901CS75</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1901CS76</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1901CS77</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1901CS78</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1901CS79</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1901CS03</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1901CS06</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1901CS08</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1901CS16</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1901CS22</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1901CS27</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1901CS29</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1901CS30</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1901CS32</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1901CS36</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1901CS37</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1901CS38</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1901CS39</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1901CS40</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1901CS42</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1901CS43</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1901CS46</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1901CS48</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1901CS49</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1901CS51</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1901CS52</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1901CS56</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1901CS60</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1901CS63</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1901CS64</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1901CS70</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>CORE</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1901CS74</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>CS322</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>CORE</t>
         </is>
       </c>
     </row>
